--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H2">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I2">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J2">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>399.06598686927</v>
+        <v>504.5102515732016</v>
       </c>
       <c r="R2">
-        <v>399.06598686927</v>
+        <v>4540.592264158814</v>
       </c>
       <c r="S2">
-        <v>0.00660222942058514</v>
+        <v>0.007661562678039559</v>
       </c>
       <c r="T2">
-        <v>0.00660222942058514</v>
+        <v>0.007661562678039561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H3">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I3">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J3">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>7911.121418670781</v>
+        <v>8079.249987941193</v>
       </c>
       <c r="R3">
-        <v>7911.121418670781</v>
+        <v>72713.24989147072</v>
       </c>
       <c r="S3">
-        <v>0.1308832130493743</v>
+        <v>0.1226926112623908</v>
       </c>
       <c r="T3">
-        <v>0.1308832130493743</v>
+        <v>0.1226926112623908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H4">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I4">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J4">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>7323.600264116891</v>
+        <v>10977.83745958656</v>
       </c>
       <c r="R4">
-        <v>7323.600264116891</v>
+        <v>98800.53713627903</v>
       </c>
       <c r="S4">
-        <v>0.1211631427365853</v>
+        <v>0.1667109627677199</v>
       </c>
       <c r="T4">
-        <v>0.1211631427365853</v>
+        <v>0.1667109627677199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H5">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I5">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J5">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>7020.697677650662</v>
+        <v>7140.873444155975</v>
       </c>
       <c r="R5">
-        <v>7020.697677650662</v>
+        <v>64267.86099740378</v>
       </c>
       <c r="S5">
-        <v>0.1161518603077628</v>
+        <v>0.1084422948745791</v>
       </c>
       <c r="T5">
-        <v>0.1161518603077628</v>
+        <v>0.1084422948745792</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H6">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I6">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J6">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>31270.05147897828</v>
+        <v>32127.56965798838</v>
       </c>
       <c r="R6">
-        <v>31270.05147897828</v>
+        <v>289148.1269218954</v>
       </c>
       <c r="S6">
-        <v>0.5173381361748424</v>
+        <v>0.4878937303260037</v>
       </c>
       <c r="T6">
-        <v>0.5173381361748424</v>
+        <v>0.4878937303260039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.2067724785986</v>
+        <v>48.25514733333333</v>
       </c>
       <c r="H7">
-        <v>48.2067724785986</v>
+        <v>144.765442</v>
       </c>
       <c r="I7">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783166</v>
       </c>
       <c r="J7">
-        <v>0.9345016489449308</v>
+        <v>0.9340796096783167</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>2560.598574252386</v>
+        <v>2678.656402128556</v>
       </c>
       <c r="R7">
-        <v>2560.598574252386</v>
+        <v>24107.907619157</v>
       </c>
       <c r="S7">
-        <v>0.04236306725578091</v>
+        <v>0.0406784477695834</v>
       </c>
       <c r="T7">
-        <v>0.04236306725578091</v>
+        <v>0.04067844776958342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H8">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I8">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J8">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>27.97016370341511</v>
+        <v>35.60458055223956</v>
       </c>
       <c r="R8">
-        <v>27.97016370341511</v>
+        <v>320.441224970156</v>
       </c>
       <c r="S8">
-        <v>0.0004627441169566887</v>
+        <v>0.0005406961001796649</v>
       </c>
       <c r="T8">
-        <v>0.0004627441169566887</v>
+        <v>0.000540696100179665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H9">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I9">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J9">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>554.4831392265534</v>
+        <v>570.1733633763339</v>
       </c>
       <c r="R9">
-        <v>554.4831392265534</v>
+        <v>5131.560270387004</v>
       </c>
       <c r="S9">
-        <v>0.009173482620605314</v>
+        <v>0.008658731804228907</v>
       </c>
       <c r="T9">
-        <v>0.009173482620605314</v>
+        <v>0.008658731804228909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H10">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I10">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J10">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>513.3043281707389</v>
+        <v>774.7341048084347</v>
       </c>
       <c r="R10">
-        <v>513.3043281707389</v>
+        <v>6972.606943275912</v>
       </c>
       <c r="S10">
-        <v>0.008492211936550557</v>
+        <v>0.01176521960514307</v>
       </c>
       <c r="T10">
-        <v>0.008492211936550557</v>
+        <v>0.01176521960514307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H11">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I11">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J11">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>492.0741677250588</v>
+        <v>503.9497274098698</v>
       </c>
       <c r="R11">
-        <v>492.0741677250588</v>
+        <v>4535.547546688827</v>
       </c>
       <c r="S11">
-        <v>0.008140975813928737</v>
+        <v>0.007653050480325972</v>
       </c>
       <c r="T11">
-        <v>0.008140975813928737</v>
+        <v>0.007653050480325974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H12">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I12">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J12">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>2191.688812526535</v>
+        <v>2267.324872524544</v>
       </c>
       <c r="R12">
-        <v>2191.688812526535</v>
+        <v>20405.92385272089</v>
       </c>
       <c r="S12">
-        <v>0.03625974860034924</v>
+        <v>0.03443191009133414</v>
       </c>
       <c r="T12">
-        <v>0.03625974860034924</v>
+        <v>0.03443191009133414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.37876782839274</v>
+        <v>3.405489333333334</v>
       </c>
       <c r="H13">
-        <v>3.37876782839274</v>
+        <v>10.216468</v>
       </c>
       <c r="I13">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="J13">
-        <v>0.06549835105506918</v>
+        <v>0.06592039032168336</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>179.4699715263699</v>
+        <v>189.0396425919214</v>
       </c>
       <c r="R13">
-        <v>179.4699715263699</v>
+        <v>1701.356783327292</v>
       </c>
       <c r="S13">
-        <v>0.00296918796667865</v>
+        <v>0.002870782240471592</v>
       </c>
       <c r="T13">
-        <v>0.00296918796667865</v>
+        <v>0.002870782240471592</v>
       </c>
     </row>
   </sheetData>
